--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Province.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Province.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB661F07-D8A6-4433-A8EB-7B00666426CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E69C4C2-7F93-4465-9086-2B6C548C9A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="236">
   <si>
     <t>province_id</t>
   </si>
@@ -57,6 +57,684 @@
   </si>
   <si>
     <t>Bangkok</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>ปทุมธานี</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>พระนครศรีอยุธยา</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>ลพบุรี</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>สิงห์บุรี</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>ชัยนาท</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>สระบุรี</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ชลบุรี</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>ระยอง</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>จันทบุรี</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>ตราด</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>ปราจีนบุรี</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>นครนายก</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>สระแก้ว</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>นครราชสีมา</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>บุรีรัมย์</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>สุรินทร์</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>ศรีสะเกษ</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>อุบลราชธานี</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ยโสธร</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>ชัยภูมิ</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>อำนาจเจริญ</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>หนองบัวลำภู</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>ขอนแก่น</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>อุดรธานี</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>เลย</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>หนองคาย</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>มหาสารคาม</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>ร้อยเอ็ด</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>กาฬสินธุ์</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>สกลนคร</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>นครพนม</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>มุกดาหาร</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>เชียงใหม่</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>ลำพูน</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>ลำปาง</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>อุตรดิตถ์</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>แพร่</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>น่าน</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>พะเยา</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>เชียงราย</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>แม่ฮ่องสอน</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>นครสวรรค์</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>อุทัยธานี</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>กำแพงเพชร</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>ตาก</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>สุโขทัย</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>พิษณุโลก</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>พิจิตร</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>เพชรบูรณ์</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>ราชบุรี</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>กาญจนบุรี</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>สุพรรณบุรี</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>นครปฐม</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>สมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>เพชรบุรี</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>ประจวบคีรีขันธ์</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>นครศรีธรรมราช</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>กระบี่</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>พังงา</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>ภูเก็ต</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>ระนอง</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>ชุมพร</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>สงขลา</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>สตูล</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>ตรัง</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>พัทลุง</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>ปัตตานี</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>ยะลา</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>นราธิวาส</t>
+  </si>
+  <si>
+    <t>Samut Prakan</t>
+  </si>
+  <si>
+    <t>Nonthaburi</t>
+  </si>
+  <si>
+    <t>Pathum Thani</t>
+  </si>
+  <si>
+    <t>Phra Nakhon Si Ayutthaya</t>
+  </si>
+  <si>
+    <t>Ang Thong</t>
+  </si>
+  <si>
+    <t>Lop Buri</t>
+  </si>
+  <si>
+    <t>Sing Buri</t>
+  </si>
+  <si>
+    <t>Chai Nat</t>
+  </si>
+  <si>
+    <t>Saraburi</t>
+  </si>
+  <si>
+    <t>Chon Buri</t>
+  </si>
+  <si>
+    <t>Rayong</t>
+  </si>
+  <si>
+    <t>Chanthaburi</t>
+  </si>
+  <si>
+    <t>Trat</t>
+  </si>
+  <si>
+    <t>Chachoengsao</t>
+  </si>
+  <si>
+    <t>Prachin Buri</t>
+  </si>
+  <si>
+    <t>Nakhon Nayok</t>
+  </si>
+  <si>
+    <t>Sarkaew</t>
+  </si>
+  <si>
+    <t>Nakhon Ratchasima</t>
+  </si>
+  <si>
+    <t>Buri Ram</t>
+  </si>
+  <si>
+    <t>Surin</t>
+  </si>
+  <si>
+    <t>Si  Sa Ket</t>
+  </si>
+  <si>
+    <t>Ubon Ratchathani</t>
+  </si>
+  <si>
+    <t>Yasothon</t>
+  </si>
+  <si>
+    <t>Chaiyaphum</t>
+  </si>
+  <si>
+    <t>Amnat Charoen</t>
+  </si>
+  <si>
+    <t>Nong Bua Lumpoo</t>
+  </si>
+  <si>
+    <t>Khon Kaen</t>
+  </si>
+  <si>
+    <t>Udon Thani</t>
+  </si>
+  <si>
+    <t>Loei</t>
+  </si>
+  <si>
+    <t>Nong Khai</t>
+  </si>
+  <si>
+    <t>Maha Sarakham</t>
+  </si>
+  <si>
+    <t>Roi Et</t>
+  </si>
+  <si>
+    <t>Kalasin</t>
+  </si>
+  <si>
+    <t>Sakon Nakhon</t>
+  </si>
+  <si>
+    <t>Nakhon Phanom</t>
+  </si>
+  <si>
+    <t>Mukdahan</t>
+  </si>
+  <si>
+    <t>Chiang Mai</t>
+  </si>
+  <si>
+    <t>Lamphun</t>
+  </si>
+  <si>
+    <t>Lampang</t>
+  </si>
+  <si>
+    <t>Uttaradit</t>
+  </si>
+  <si>
+    <t>Phrae</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>Phayao</t>
+  </si>
+  <si>
+    <t>Chiang Rai</t>
+  </si>
+  <si>
+    <t>Mae Hong Son</t>
+  </si>
+  <si>
+    <t>Nakhon  Sawan</t>
+  </si>
+  <si>
+    <t>Uthai Thani</t>
+  </si>
+  <si>
+    <t>Kamphaeng Phet</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Sukhothai</t>
+  </si>
+  <si>
+    <t>Phisanulok</t>
+  </si>
+  <si>
+    <t>Phichit</t>
+  </si>
+  <si>
+    <t>Phetchabun</t>
+  </si>
+  <si>
+    <t>Ratchaburi</t>
+  </si>
+  <si>
+    <t>Kanchanaburi</t>
+  </si>
+  <si>
+    <t>Suphan Buri</t>
+  </si>
+  <si>
+    <t>Nakhon Pathom</t>
+  </si>
+  <si>
+    <t>Samut Sakhon</t>
+  </si>
+  <si>
+    <t>Samut Songkram</t>
+  </si>
+  <si>
+    <t>Phetchaburi</t>
+  </si>
+  <si>
+    <t>Prachuap Khiri Khan</t>
+  </si>
+  <si>
+    <t>Nakhon Si Thammarat</t>
+  </si>
+  <si>
+    <t>Krabi</t>
+  </si>
+  <si>
+    <t>Phangnga</t>
+  </si>
+  <si>
+    <t>Narathiwat</t>
+  </si>
+  <si>
+    <t>Phuket</t>
+  </si>
+  <si>
+    <t>Surat Thani</t>
+  </si>
+  <si>
+    <t>Yala</t>
+  </si>
+  <si>
+    <t>Pattani</t>
+  </si>
+  <si>
+    <t>Phatthalung</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Satun</t>
+  </si>
+  <si>
+    <t>Ranong</t>
+  </si>
+  <si>
+    <t>Chumphon</t>
+  </si>
+  <si>
+    <t>Songkhla</t>
   </si>
 </sst>
 </file>
@@ -133,7 +811,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +825,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -465,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,15 +1173,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6423DF-C114-4662-ABE4-4EDCDFD5E467}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,14 +1222,839 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Province.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Province.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E69C4C2-7F93-4465-9086-2B6C548C9A60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091A492-B3FD-4A0E-9845-0457E4FA7416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="238">
   <si>
     <t>province_id</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>province_name_en</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>รหัส  จังหวัด
@@ -735,6 +732,15 @@
   </si>
   <si>
     <t>Songkhla</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -811,7 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,6 +833,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1145,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1179,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6423DF-C114-4662-ABE4-4EDCDFD5E467}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,23 +1200,26 @@
     <col min="2" max="2" width="25.36328125" customWidth="1"/>
     <col min="3" max="3" width="25.6328125" customWidth="1"/>
     <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,844 +1232,853 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="D48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="D49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="D53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="D70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="D72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="D75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="D78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Province.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Province.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091A492-B3FD-4A0E-9845-0457E4FA7416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE3A92C-2BB0-4669-9AA5-460517CD9F33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
   <si>
     <t>province_id</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -817,7 +823,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,6 +841,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1152,31 +1161,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1188,896 +1201,903 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6423DF-C114-4662-ABE4-4EDCDFD5E467}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" customWidth="1"/>
-    <col min="6" max="7" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="7" max="8" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C37" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C42" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C43" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C47" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C48" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C49" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C50" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="5" t="s">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C52" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C53" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C54" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C55" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C56" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" s="5" t="s">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C57" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C58" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="5" t="s">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C59" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C60" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="5" t="s">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C61" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C62" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C63" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B64" s="5" t="s">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C64" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="5" t="s">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C65" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="5" t="s">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C66" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C67" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C68" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="5" t="s">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="5" t="s">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C70" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C71" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B72" s="5" t="s">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C72" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B73" s="5" t="s">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C73" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B74" s="5" t="s">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C74" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="5" t="s">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C75" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="5" t="s">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C76" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B77" s="5" t="s">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C77" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C78" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Province.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Province.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE3A92C-2BB0-4669-9AA5-460517CD9F33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B251E47-FE20-4CE7-9A02-50A6CBA5043C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="238">
   <si>
     <t>province_id</t>
   </si>
@@ -741,12 +741,6 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -823,7 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,9 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1161,35 +1152,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1201,903 +1188,896 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6423DF-C114-4662-ABE4-4EDCDFD5E467}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" customWidth="1"/>
-    <col min="5" max="5" width="26.453125" customWidth="1"/>
-    <col min="7" max="8" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>237</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="C34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="C36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="C41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D42" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="C43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E43" t="s">
+      <c r="D43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="C44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E44" t="s">
+      <c r="D44" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="C46" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C47" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E47" t="s">
+      <c r="D47" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="C48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="C49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E49" t="s">
+      <c r="D49" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="C50" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="C51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="C52" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E52" t="s">
+      <c r="D52" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="C53" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E53" t="s">
+      <c r="D53" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="C54" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E54" t="s">
+      <c r="D54" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="C55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E55" t="s">
+      <c r="D55" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="C56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="C57" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E57" t="s">
+      <c r="D57" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="C58" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E58" t="s">
+      <c r="D58" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="C59" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E59" t="s">
+      <c r="D59" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="C60" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E60" t="s">
+      <c r="D60" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="C61" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E61" t="s">
+      <c r="D61" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="C62" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E62" t="s">
+      <c r="D62" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="C63" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E63" t="s">
+      <c r="D63" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="C64" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E64" t="s">
+      <c r="D64" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="C65" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D65" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="C66" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E66" t="s">
+      <c r="D66" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="C67" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E67" t="s">
+      <c r="D67" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="C68" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E68" t="s">
+      <c r="D68" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="C69" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E69" t="s">
+      <c r="D69" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="C70" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E70" t="s">
+      <c r="D70" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="C71" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D71" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="C72" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E72" t="s">
+      <c r="D72" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="C73" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E73" t="s">
+      <c r="D73" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C74" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E74" t="s">
+      <c r="D74" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="C75" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E75" t="s">
+      <c r="D75" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="C76" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="C77" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E77" t="s">
+      <c r="D77" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="C78" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E78" t="s">
+      <c r="D78" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
